--- a/docs/odh/obf-DomainResource.xlsx
+++ b/docs/odh/obf-DomainResource.xlsx
@@ -141,7 +141,7 @@
   </si>
   <si>
     <t>Parent class for any item in clinical or administrative health-related system. A DomainResource can belong to a single person's health record, or represent an entity that surfaces in multiple records, such as organizations, providers, payments, decision support artifacts, etc.
-Note to FHIR implementers: SHR includes Status and Identifier fields on DomainResource because these two attributes occur in almost every FHIR resource. The most significant exception are 3 or 4 resources that use an 'active' flag instead of coded status value. There is no apparent pattern to this inconsistency. FHIR resources that use a coded status have active and inactive as status values. In the spirit of providing a consistent object-oriented logical model for FHIR, SHR uses status across all domain resources.</t>
+Note to FHIR implementers: Objective FHIR includes Status and Identifier fields on DomainResource because these two attributes occur in almost every FHIR resource. The most significant exception are 3 or 4 resources that use an 'active' flag instead of coded status value. There is no apparent pattern to this inconsistency. FHIR resources that use a coded status have active and inactive as status values. In the spirit of providing a consistent object-oriented logical model for FHIR, Objective FHIR uses status across all domain resources.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
@@ -328,7 +328,7 @@
     <t>identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Identifier-extension}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/us/odh/StructureDefinition/obf-datatype-Identifier-extension}
 </t>
   </si>
   <si>
